--- a/Members_Detail/Members Detail.xlsx
+++ b/Members_Detail/Members Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Members_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F024D39-18B8-45E7-9110-EE5D4AE7E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47AFEB-8A00-4D13-9818-2DB51517A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="LEADS" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -56,15 +56,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>Abhinav Raja Raizada</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abhinav-raja-raizada-850440217/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/abhinnxvv/</t>
-  </si>
-  <si>
     <t>Abuzer Ganjifrockwala</t>
   </si>
   <si>
@@ -477,6 +468,33 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Abhinav Prajapati</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhinav-prajapati-0b7711254/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/sudo_abhii?utm_source=qr&amp;igshid=NGExMmI2YTkyZg%3D%3D/</t>
+  </si>
+  <si>
+    <t>Anshul Kawarey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anshul-kawarey-739590251/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/anshul_kawarey?igshid=OGQ5ZDc2ODk2ZA==/</t>
+  </si>
+  <si>
+    <t>Daniel Biju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/daniel-biju/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/daaaaanu?igshid=MjEwN2IyYWYwYw==/</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,6 +588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64824E1-30E3-41D5-BA26-96F18C7CE940}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
@@ -920,87 +938,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
         <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C52DB2-DC7F-48BF-8CC0-4AEED33EF0B6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,149 +1059,166 @@
     </row>
     <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1198,22 +1233,25 @@
     <hyperlink ref="E2" r:id="rId8" xr:uid="{E7646EF6-F90F-4231-81D0-59D97224EBAB}"/>
     <hyperlink ref="D3" r:id="rId9" xr:uid="{55986C75-2964-44BA-B523-DA88BF21B061}"/>
     <hyperlink ref="E3" r:id="rId10" xr:uid="{F62C9A94-BFA9-453A-8AB5-DD8B95075836}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{6F8EBB9B-D121-4430-9A70-A5C337185E58}"/>
-    <hyperlink ref="D10" r:id="rId12" xr:uid="{0DE22988-9298-409D-B7CD-E11FC3C09234}"/>
-    <hyperlink ref="E10" r:id="rId13" xr:uid="{C106AF5F-098C-4971-90BF-B7C9E7234A5B}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{6F8EBB9B-D121-4430-9A70-A5C337185E58}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{0DE22988-9298-409D-B7CD-E11FC3C09234}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{C106AF5F-098C-4971-90BF-B7C9E7234A5B}"/>
     <hyperlink ref="D4" r:id="rId14" xr:uid="{3ED1FCFA-84F9-43F4-9B3C-93AB3AB6AE51}"/>
     <hyperlink ref="E4" r:id="rId15" xr:uid="{08126C49-4C81-4157-9F18-E6C012E68BCF}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{67919164-1138-4E5F-9BB2-F4377037EB5C}"/>
+    <hyperlink ref="E8" r:id="rId17" xr:uid="{C6B98C14-9A07-48F1-8794-501C9969D1A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E677DDE-7B2E-46C7-806F-29A0E578CFDB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,215 +1260,234 @@
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>86</v>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{66EDA97A-6F28-400A-BF37-719A44F65DA2}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{9523C1CD-FFCE-41BD-8582-D9FE3B4025E5}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{61460286-16E5-4A26-91B6-1B8B51982949}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{5CC9212E-4E69-4C7B-89D1-3F5A44E24EBF}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{F3A4D804-377B-4842-8D5B-B04C29A8ED32}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{79DDB8A0-1B17-48F4-9D98-CD12DCBFEC2E}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{471493AD-C206-4D17-A325-4FBE3F24E0F1}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{BC5373DB-6EE5-43C0-A568-A32E3A7C8524}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{61460286-16E5-4A26-91B6-1B8B51982949}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{5CC9212E-4E69-4C7B-89D1-3F5A44E24EBF}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F3A4D804-377B-4842-8D5B-B04C29A8ED32}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{79DDB8A0-1B17-48F4-9D98-CD12DCBFEC2E}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{471493AD-C206-4D17-A325-4FBE3F24E0F1}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{BC5373DB-6EE5-43C0-A568-A32E3A7C8524}"/>
     <hyperlink ref="D4" r:id="rId9" xr:uid="{E63C9EBF-7BF3-4DC5-BF71-935906399CC2}"/>
     <hyperlink ref="E4" r:id="rId10" xr:uid="{90432914-1912-4AD1-BFF9-B08C13379749}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{2B570FE1-B879-4D7C-A3C7-CA0ED2EE784D}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{7A9F5B92-6C8F-412B-AA23-DD7E0320521F}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{63B552B9-CE62-4471-9B49-EFFE169C2551}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{5F4BFC6A-3E39-428D-BE61-8F225F0BFC28}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{47A11ECE-CC8F-479B-978C-D03E709042F0}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{DAB50924-34BA-48F2-B327-DE626A4EA52F}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{2B570FE1-B879-4D7C-A3C7-CA0ED2EE784D}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{7A9F5B92-6C8F-412B-AA23-DD7E0320521F}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{63B552B9-CE62-4471-9B49-EFFE169C2551}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{5F4BFC6A-3E39-428D-BE61-8F225F0BFC28}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{47A11ECE-CC8F-479B-978C-D03E709042F0}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{DAB50924-34BA-48F2-B327-DE626A4EA52F}"/>
     <hyperlink ref="D3" r:id="rId17" xr:uid="{28B96E90-DA3C-47F0-9E73-23496FD71991}"/>
     <hyperlink ref="E3" r:id="rId18" xr:uid="{BD75C207-48CA-4E5C-9860-95F263AB30E8}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{FAFDF18C-E06B-436C-BA7D-B5E59A734E73}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{D92534D7-DFA9-4006-9808-8F0A5EB02BF0}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{FAFDF18C-E06B-436C-BA7D-B5E59A734E73}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{D92534D7-DFA9-4006-9808-8F0A5EB02BF0}"/>
+    <hyperlink ref="D5" r:id="rId21" xr:uid="{24876661-5351-46EB-A866-FA79AFA37BF2}"/>
+    <hyperlink ref="E5" r:id="rId22" xr:uid="{FB237374-3FD2-475D-B478-681D8BFB6185}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1441,7 +1498,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,96 +1511,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>74</v>
+      <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1594,138 +1651,138 @@
     </row>
     <row r="2" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1755,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFDC825-D745-40E8-8967-CE8ADAB93764}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,169 +1825,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Members_Detail/Members Detail.xlsx
+++ b/Members_Detail/Members Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Members_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47AFEB-8A00-4D13-9818-2DB51517A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE5DBA-DFDC-466F-96A6-84CBB8178B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="LEADS" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64824E1-30E3-41D5-BA26-96F18C7CE940}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,9 +960,6 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
       <c r="D3" t="s">
         <v>98</v>
       </c>
@@ -977,9 +974,6 @@
       <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
       <c r="D4" t="s">
         <v>102</v>
       </c>
@@ -994,9 +988,6 @@
       <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
       <c r="D5" t="s">
         <v>106</v>
       </c>
@@ -1010,9 +1001,6 @@
       </c>
       <c r="B6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>110</v>
@@ -1030,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C52DB2-DC7F-48BF-8CC0-4AEED33EF0B6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,9 +1052,7 @@
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1081,9 +1067,7 @@
       <c r="B3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1098,9 +1082,7 @@
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>88</v>
       </c>
@@ -1115,9 +1097,7 @@
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1132,9 +1112,7 @@
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1149,9 +1127,7 @@
       <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1166,9 +1142,7 @@
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>147</v>
       </c>
@@ -1183,9 +1157,7 @@
       <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1194,12 +1166,8 @@
       <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1211,9 +1179,7 @@
       <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>67</v>
       </c>
@@ -1250,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E677DDE-7B2E-46C7-806F-29A0E578CFDB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,9 +1250,7 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1301,9 +1265,7 @@
       <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
@@ -1318,9 +1280,7 @@
       <c r="B4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
@@ -1335,9 +1295,7 @@
       <c r="B5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>150</v>
       </c>
@@ -1352,9 +1310,7 @@
       <c r="B6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1369,9 +1325,7 @@
       <c r="B7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1386,9 +1340,7 @@
       <c r="B8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1403,9 +1355,7 @@
       <c r="B9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1420,9 +1370,7 @@
       <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
@@ -1437,9 +1385,7 @@
       <c r="B11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
@@ -1454,9 +1400,7 @@
       <c r="B12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
         <v>82</v>
       </c>
@@ -1498,7 +1442,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,9 +1478,7 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>144</v>
       </c>
@@ -1551,9 +1493,7 @@
       <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1568,9 +1508,7 @@
       <c r="B4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
         <v>90</v>
       </c>
@@ -1585,9 +1523,7 @@
       <c r="B5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
@@ -1656,9 +1592,7 @@
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1673,9 +1607,7 @@
       <c r="B3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1690,9 +1622,7 @@
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1707,9 +1637,7 @@
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1724,9 +1652,7 @@
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1741,9 +1667,7 @@
       <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
@@ -1758,9 +1682,7 @@
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1775,9 +1697,7 @@
       <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
@@ -1812,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFDC825-D745-40E8-8967-CE8ADAB93764}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,9 +1768,7 @@
       <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>114</v>
       </c>
@@ -1865,9 +1783,7 @@
       <c r="B3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>121</v>
       </c>
@@ -1882,9 +1798,7 @@
       <c r="B4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
@@ -1895,15 +1809,11 @@
       <c r="B5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1912,9 +1822,7 @@
       <c r="B6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
         <v>128</v>
       </c>
@@ -1929,9 +1837,7 @@
       <c r="B7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>130</v>
       </c>
@@ -1946,9 +1852,7 @@
       <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
@@ -1963,9 +1867,7 @@
       <c r="B9" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>134</v>
       </c>
@@ -1980,9 +1882,7 @@
       <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
         <v>138</v>
       </c>

--- a/Members_Detail/Members Detail.xlsx
+++ b/Members_Detail/Members Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Members_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE5DBA-DFDC-466F-96A6-84CBB8178B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343191E2-80B3-496C-B712-105B345F5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
   </bookViews>
@@ -392,15 +392,6 @@
     <t>Rehana</t>
   </si>
   <si>
-    <t>Ex-SIESED Lead</t>
-  </si>
-  <si>
-    <t>Ex-Team Lead</t>
-  </si>
-  <si>
-    <t>Ex-SPACED Lead</t>
-  </si>
-  <si>
     <t>Adheesh Mathur</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>https://instagram.com/_adheesh.1210_?igshid=ZDdkNTZiNTM=/</t>
   </si>
   <si>
-    <t>Ex-SAMBED Lead</t>
-  </si>
-  <si>
     <t>Pranav Malakar</t>
   </si>
   <si>
@@ -495,6 +483,18 @@
   </si>
   <si>
     <t>https://instagram.com/daaaaanu?igshid=MjEwN2IyYWYwYw==/</t>
+  </si>
+  <si>
+    <t>Team Lead 2023</t>
+  </si>
+  <si>
+    <t>SAMBED Lead 2023</t>
+  </si>
+  <si>
+    <t>SPACED Lead 2023</t>
+  </si>
+  <si>
+    <t>SIESED Lead 2023</t>
   </si>
 </sst>
 </file>
@@ -1137,17 +1137,17 @@
     </row>
     <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1290,17 +1290,17 @@
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="8" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>112</v>
@@ -1473,17 +1473,17 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,7 +1766,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -1778,17 +1778,17 @@
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1804,90 +1804,90 @@
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
